--- a/backend/expenses.xlsx
+++ b/backend/expenses.xlsx
@@ -415,24 +415,24 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>bat</v>
+        <v>gr</v>
       </c>
       <c r="B2">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-08-17</v>
+        <v>2025-09-18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>cricket ball</v>
+        <v>hospital</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>9999</v>
       </c>
       <c r="C3" t="str">
-        <v>2025-08-13</v>
+        <v>2025-09-08</v>
       </c>
     </row>
   </sheetData>
